--- a/Exp3Groups.xlsx
+++ b/Exp3Groups.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Day 1 Training Session\Day 2 Training Philado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9904BBB-100E-4219-9183-4152F5CD6EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAB4A38-7685-4128-A7E9-BB6B7F5D5F81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Terms" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
   <si>
     <t>1</t>
   </si>
@@ -371,16 +372,49 @@
   </si>
   <si>
     <t>Perf</t>
+  </si>
+  <si>
+    <t>This dataset on 'SleepData.xlsx' is hypothetical and was generated</t>
+  </si>
+  <si>
+    <t>by Paolo G. Hilado (Github: Dcroix) for training purposes on Basic Statistics . Considering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that most of the values generated by this dataset use randomization, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in such a rare case that it resembles any existing dataset, it is purely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coincidental. It is distributed under </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creative Commons Attribution-NoDerivatives 4.0 International Public License.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,13 +437,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -792,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2044,4 +2082,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C3AEBB-E429-44BD-A5C7-B40BAE126C26}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://github.com/Dcroix/SampleData/blob/master/Creative Commons Attribution-NoDerivatives 4.0 International Public License" xr:uid="{5BF4AFAC-C89C-4D9F-AAB6-03607095F3DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Exp3Groups.xlsx
+++ b/Exp3Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Day 1 Training Session\Day 2 Training Philado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Python Scripts\Python Training Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAB4A38-7685-4128-A7E9-BB6B7F5D5F81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74457FF-7177-4CF6-A323-58F683F198EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="124">
   <si>
     <t>1</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Creative Commons Attribution-NoDerivatives 4.0 International Public License.</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -452,74 +455,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -536,10 +471,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="14181B"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F0F1F2"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -830,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,6 +775,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
       <c r="B1" t="s">
         <v>116</v>
       </c>
@@ -929,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.71</v>
+        <v>3.77</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -1006,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.0599999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
@@ -1083,7 +1021,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.09</v>
+        <v>3.84</v>
       </c>
       <c r="C23" t="s">
         <v>112</v>
@@ -1105,7 +1043,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3.84</v>
       </c>
       <c r="C25" t="s">
         <v>112</v>
@@ -1182,7 +1120,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.08</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C32" t="s">
         <v>112</v>
@@ -1303,7 +1241,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.25</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C43" t="s">
         <v>113</v>
@@ -1391,7 +1329,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="C51" t="s">
         <v>113</v>
@@ -1501,7 +1439,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="C61" t="s">
         <v>113</v>
@@ -1743,7 +1681,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.43</v>
+        <v>4.45</v>
       </c>
       <c r="C83" t="s">
         <v>114</v>
@@ -1765,7 +1703,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.5599999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="C85" t="s">
         <v>114</v>
@@ -1875,7 +1813,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="C95" t="s">
         <v>114</v>
@@ -2018,7 +1956,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.43</v>
+        <v>4.45</v>
       </c>
       <c r="C108" t="s">
         <v>114</v>
@@ -2088,7 +2026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C3AEBB-E429-44BD-A5C7-B40BAE126C26}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
